--- a/테이블/테이블 원본/Item_Combination_v_1.0.1.xlsx
+++ b/테이블/테이블 원본/Item_Combination_v_1.0.1.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33C942FA-8A10-489D-B2C3-672C1DD9F3F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ITEM_Combination" sheetId="3" r:id="rId1"/>
@@ -17,7 +16,7 @@
   <definedNames>
     <definedName name="ITEM">[1]ITEM!$B$2:$K$70</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>Modify16</t>
   </si>
@@ -46,178 +45,267 @@
   </si>
   <si>
     <t>Family of Sowrd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cristal Sowrd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Dark Sowrd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Black Stone Sowrd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Steel Sowrd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Modify6</t>
   </si>
   <si>
     <t>Card of Confidence</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cristal Card</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Holy Card</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Black Stone Card</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Steel Card</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Modify1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Dagger of Dacer</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Cristal Dagger</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Dark Dagger</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Black Stone Dagger</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Steel Dagger</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>WNB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Material5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Material5 Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Material4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Material4 Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Material3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Material3 Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Material2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Material2 Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Material1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Material1 Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Material Num</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Master</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Korea Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>Index</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>모두</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>양의 조합</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>채아람</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>음의 조합</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>한소원</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>고은혜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Count</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -309,16 +397,25 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -330,19 +427,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="표준 2" xfId="1" xr:uid="{B197AA71-05E9-4917-8AA1-92C7B796ADAD}"/>
+    <cellStyle name="표준 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2849,11 +2940,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2761760D-6CFD-47EB-ABCB-04B3041E980A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2886,70 +2977,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="G1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="8" t="s">
+      <c r="U1" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="V1" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2961,11 +3052,11 @@
         <v>18</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>VLOOKUP(B2,ITEM,2,FALSE)</f>
+        <f t="shared" ref="C2:C16" si="0">VLOOKUP(B2,ITEM,2,FALSE)</f>
         <v>강철 단검</v>
       </c>
       <c r="D2" s="2">
-        <f>VLOOKUP(B2,ITEM,3,FALSE)</f>
+        <f t="shared" ref="D2:D16" si="1">VLOOKUP(B2,ITEM,3,FALSE)</f>
         <v>1001</v>
       </c>
       <c r="E2" s="2">
@@ -3013,11 +3104,11 @@
         <v>17</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>VLOOKUP(B3,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>흑요석 단검</v>
       </c>
       <c r="D3" s="2">
-        <f>VLOOKUP(B3,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1002</v>
       </c>
       <c r="E3" s="2">
@@ -3051,11 +3142,11 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>VLOOKUP(B4,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>암흑 단검</v>
       </c>
       <c r="D4" s="2">
-        <f>VLOOKUP(B4,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1003</v>
       </c>
       <c r="E4" s="2">
@@ -3089,11 +3180,11 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>VLOOKUP(B5,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>금강옥의 단검</v>
       </c>
       <c r="D5" s="2">
-        <f>VLOOKUP(B5,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1004</v>
       </c>
       <c r="E5" s="2">
@@ -3127,11 +3218,11 @@
         <v>14</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>VLOOKUP(B6,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>무희의 단검</v>
       </c>
       <c r="D6" s="2">
-        <f>VLOOKUP(B6,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1005</v>
       </c>
       <c r="E6" s="2">
@@ -3165,11 +3256,11 @@
         <v>12</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>VLOOKUP(B7,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>강철 카드</v>
       </c>
       <c r="D7" s="2">
-        <f>VLOOKUP(B7,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1006</v>
       </c>
       <c r="E7" s="2">
@@ -3217,11 +3308,11 @@
         <v>11</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>VLOOKUP(B8,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>흑요석 카드</v>
       </c>
       <c r="D8" s="2">
-        <f>VLOOKUP(B8,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1007</v>
       </c>
       <c r="E8" s="2">
@@ -3255,11 +3346,11 @@
         <v>10</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>VLOOKUP(B9,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>빛의 카드</v>
       </c>
       <c r="D9" s="2">
-        <f>VLOOKUP(B9,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1008</v>
       </c>
       <c r="E9" s="2">
@@ -3293,11 +3384,11 @@
         <v>9</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>VLOOKUP(B10,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>금강옥 카드</v>
       </c>
       <c r="D10" s="2">
-        <f>VLOOKUP(B10,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1009</v>
       </c>
       <c r="E10" s="2">
@@ -3331,11 +3422,11 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>VLOOKUP(B11,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>자신감의 카드</v>
       </c>
       <c r="D11" s="2">
-        <f>VLOOKUP(B11,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1010</v>
       </c>
       <c r="E11" s="2">
@@ -3369,11 +3460,11 @@
         <v>6</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>VLOOKUP(B12,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>강철 검</v>
       </c>
       <c r="D12" s="2">
-        <f>VLOOKUP(B12,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1011</v>
       </c>
       <c r="E12" s="2">
@@ -3421,11 +3512,11 @@
         <v>5</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>VLOOKUP(B13,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>흑요석 검</v>
       </c>
       <c r="D13" s="2">
-        <f>VLOOKUP(B13,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1012</v>
       </c>
       <c r="E13" s="2">
@@ -3459,11 +3550,11 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>VLOOKUP(B14,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>암흑 검</v>
       </c>
       <c r="D14" s="2">
-        <f>VLOOKUP(B14,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1013</v>
       </c>
       <c r="E14" s="2">
@@ -3497,11 +3588,11 @@
         <v>3</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>VLOOKUP(B15,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>금강옥 검</v>
       </c>
       <c r="D15" s="2">
-        <f>VLOOKUP(B15,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1014</v>
       </c>
       <c r="E15" s="2">
@@ -3535,11 +3626,11 @@
         <v>2</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>VLOOKUP(B16,ITEM,2,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>가족의 검</v>
       </c>
       <c r="D16" s="2">
-        <f>VLOOKUP(B16,ITEM,3,FALSE)</f>
+        <f t="shared" si="1"/>
         <v>1015</v>
       </c>
       <c r="E16" s="2">
@@ -3592,14 +3683,14 @@
       <c r="V17" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E7:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3609,69 +3700,69 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="7" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="4" t="s">
+      <c r="E7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E8" s="6">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>37</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E9" s="6">
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+      <c r="H9" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" s="6">
-        <v>2</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="10" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>2</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="F10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="F11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
   </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
